--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43035,6 +43035,41 @@
         <v>3662400</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>3073600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43070,6 +43070,41 @@
         <v>3073600</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1837400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43105,6 +43105,41 @@
         <v>1837400</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>3352100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43140,6 +43140,41 @@
         <v>3352100</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>3801800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43175,6 +43175,41 @@
         <v>3801800</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>7589000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43210,6 +43210,41 @@
         <v>7589000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>2069500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43245,6 +43245,41 @@
         <v>2069500</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>3275300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43280,6 +43280,41 @@
         <v>3275300</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>2771700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43315,6 +43315,41 @@
         <v>2771700</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1600100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43350,6 +43350,41 @@
         <v>1600100</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>2272700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43385,6 +43385,41 @@
         <v>2272700</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>1483000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43420,6 +43420,41 @@
         <v>1483000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1031200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43455,6 +43455,76 @@
         <v>1031200</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>2383300</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>6289600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43525,6 +43525,76 @@
         <v>6289600</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>2609000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>4706000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43595,6 +43595,41 @@
         <v>4706000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>1020500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43630,6 +43630,41 @@
         <v>1020500</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>2104900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43665,6 +43665,41 @@
         <v>2104900</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1263400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43700,6 +43700,41 @@
         <v>1263400</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>21548900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43735,6 +43735,76 @@
         <v>21548900</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>12320800</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>13608700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43805,6 +43805,41 @@
         <v>13608700</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>5796100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43840,6 +43840,41 @@
         <v>5796100</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>6290600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2501"/>
+  <dimension ref="A1:I2502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87975,6 +87975,41 @@
         <v>6290600</v>
       </c>
     </row>
+    <row r="2502">
+      <c r="A2502" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2502" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2502" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2502" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2502" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F2502" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G2502" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2502" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2502" t="n">
+        <v>4486800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2502"/>
+  <dimension ref="A1:I2503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88010,6 +88010,41 @@
         <v>4486800</v>
       </c>
     </row>
+    <row r="2503">
+      <c r="A2503" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2503" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2503" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2503" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2503" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2503" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2503" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H2503" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I2503" t="n">
+        <v>5789600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2503"/>
+  <dimension ref="A1:I2504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88045,6 +88045,41 @@
         <v>5789600</v>
       </c>
     </row>
+    <row r="2504">
+      <c r="A2504" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2504" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2504" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2504" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2504" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2504" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2504" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H2504" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I2504" t="n">
+        <v>3755800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2504"/>
+  <dimension ref="A1:I2505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88080,6 +88080,41 @@
         <v>3755800</v>
       </c>
     </row>
+    <row r="2505">
+      <c r="A2505" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2505" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2505" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2505" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2505" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F2505" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G2505" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2505" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I2505" t="n">
+        <v>7442300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2505"/>
+  <dimension ref="A1:I2506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88115,6 +88115,41 @@
         <v>7442300</v>
       </c>
     </row>
+    <row r="2506">
+      <c r="A2506" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2506" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2506" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2506" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2506" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2506" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G2506" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H2506" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2506" t="n">
+        <v>7050000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2506"/>
+  <dimension ref="A1:I2507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88150,6 +88150,41 @@
         <v>7050000</v>
       </c>
     </row>
+    <row r="2507">
+      <c r="A2507" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2507" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2507" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2507" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2507" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2507" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2507" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H2507" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I2507" t="n">
+        <v>3335900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2507"/>
+  <dimension ref="A1:I2508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88185,6 +88185,41 @@
         <v>3335900</v>
       </c>
     </row>
+    <row r="2508">
+      <c r="A2508" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2508" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2508" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2508" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2508" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2508" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G2508" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2508" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2508" t="n">
+        <v>5468800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2508"/>
+  <dimension ref="A1:I2509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88220,6 +88220,41 @@
         <v>5468800</v>
       </c>
     </row>
+    <row r="2509">
+      <c r="A2509" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2509" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2509" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2509" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2509" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F2509" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2509" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H2509" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2509" t="n">
+        <v>9367800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2509"/>
+  <dimension ref="A1:I2510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88255,6 +88255,41 @@
         <v>9367800</v>
       </c>
     </row>
+    <row r="2510">
+      <c r="A2510" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2510" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2510" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2510" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2510" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2510" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2510" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2510" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I2510" t="n">
+        <v>17990700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2510"/>
+  <dimension ref="A1:I2511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88290,6 +88290,41 @@
         <v>17990700</v>
       </c>
     </row>
+    <row r="2511">
+      <c r="A2511" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2511" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2511" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2511" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2511" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2511" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2511" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2511" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2511" t="n">
+        <v>9543100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2511"/>
+  <dimension ref="A1:I2512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88325,6 +88325,41 @@
         <v>9543100</v>
       </c>
     </row>
+    <row r="2512">
+      <c r="A2512" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2512" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2512" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2512" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2512" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2512" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G2512" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H2512" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2512" t="n">
+        <v>5752900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2512"/>
+  <dimension ref="A1:I2513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88360,6 +88360,41 @@
         <v>5752900</v>
       </c>
     </row>
+    <row r="2513">
+      <c r="A2513" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2513" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2513" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2513" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2513" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F2513" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G2513" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2513" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2513" t="n">
+        <v>10948700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2513"/>
+  <dimension ref="A1:I2514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88395,6 +88395,41 @@
         <v>10948700</v>
       </c>
     </row>
+    <row r="2514">
+      <c r="A2514" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2514" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2514" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2514" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2514" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F2514" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G2514" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H2514" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2514" t="n">
+        <v>16181800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2514"/>
+  <dimension ref="A1:I2515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88430,6 +88430,41 @@
         <v>16181800</v>
       </c>
     </row>
+    <row r="2515">
+      <c r="A2515" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2515" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2515" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2515" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2515" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2515" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G2515" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2515" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I2515" t="n">
+        <v>32942800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2515"/>
+  <dimension ref="A1:I2516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88465,6 +88465,41 @@
         <v>32942800</v>
       </c>
     </row>
+    <row r="2516">
+      <c r="A2516" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2516" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2516" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2516" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2516" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F2516" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G2516" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H2516" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I2516" t="n">
+        <v>36406300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2603"/>
+  <dimension ref="A1:I2604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91545,6 +91545,41 @@
         <v>36406300</v>
       </c>
     </row>
+    <row r="2604">
+      <c r="A2604" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2604" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2604" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2604" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2604" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F2604" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G2604" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H2604" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I2604" t="n">
+        <v>52344000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2604"/>
+  <dimension ref="A1:I2605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91580,6 +91580,41 @@
         <v>52344000</v>
       </c>
     </row>
+    <row r="2605">
+      <c r="A2605" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2605" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2605" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2605" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2605" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F2605" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G2605" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2605" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I2605" t="n">
+        <v>36159900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2605"/>
+  <dimension ref="A1:I2606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91615,6 +91615,41 @@
         <v>36159900</v>
       </c>
     </row>
+    <row r="2606">
+      <c r="A2606" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2606" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2606" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2606" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2606" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F2606" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G2606" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H2606" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I2606" t="n">
+        <v>16775600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2606"/>
+  <dimension ref="A1:I2607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91650,6 +91650,41 @@
         <v>16775600</v>
       </c>
     </row>
+    <row r="2607">
+      <c r="A2607" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2607" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2607" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2607" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2607" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F2607" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G2607" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2607" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="I2607" t="n">
+        <v>30241100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2607"/>
+  <dimension ref="A1:I2608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91685,6 +91685,41 @@
         <v>30241100</v>
       </c>
     </row>
+    <row r="2608">
+      <c r="A2608" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2608" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2608" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2608" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2608" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2608" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2608" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H2608" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I2608" t="n">
+        <v>19693200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2608"/>
+  <dimension ref="A1:I2609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91720,6 +91720,41 @@
         <v>19693200</v>
       </c>
     </row>
+    <row r="2609">
+      <c r="A2609" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2609" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2609" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2609" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2609" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F2609" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G2609" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="H2609" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I2609" t="n">
+        <v>16096100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2609"/>
+  <dimension ref="A1:I2610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91755,6 +91755,41 @@
         <v>16096100</v>
       </c>
     </row>
+    <row r="2610">
+      <c r="A2610" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2610" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2610" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2610" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2610" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F2610" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G2610" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H2610" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I2610" t="n">
+        <v>11558200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2610"/>
+  <dimension ref="A1:I2611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91790,6 +91790,41 @@
         <v>11558200</v>
       </c>
     </row>
+    <row r="2611">
+      <c r="A2611" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2611" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2611" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2611" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2611" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F2611" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G2611" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="H2611" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I2611" t="n">
+        <v>14442900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2611"/>
+  <dimension ref="A1:I2612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91825,6 +91825,41 @@
         <v>14442900</v>
       </c>
     </row>
+    <row r="2612">
+      <c r="A2612" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2612" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2612" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2612" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2612" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F2612" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G2612" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H2612" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I2612" t="n">
+        <v>13446100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2612"/>
+  <dimension ref="A1:I2613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91860,6 +91860,41 @@
         <v>13446100</v>
       </c>
     </row>
+    <row r="2613">
+      <c r="A2613" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2613" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2613" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2613" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2613" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F2613" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G2613" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H2613" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I2613" t="n">
+        <v>16506000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2613"/>
+  <dimension ref="A1:I2615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91895,6 +91895,76 @@
         <v>16506000</v>
       </c>
     </row>
+    <row r="2614">
+      <c r="A2614" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2614" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2614" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2614" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2614" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F2614" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G2614" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H2614" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I2614" t="n">
+        <v>8472600</v>
+      </c>
+    </row>
+    <row r="2615">
+      <c r="A2615" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2615" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2615" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2615" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2615" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F2615" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G2615" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H2615" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I2615" t="n">
+        <v>9803200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2615"/>
+  <dimension ref="A1:I2616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91965,6 +91965,41 @@
         <v>9803200</v>
       </c>
     </row>
+    <row r="2616">
+      <c r="A2616" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2616" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2616" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2616" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2616" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F2616" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G2616" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H2616" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I2616" t="n">
+        <v>9530700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2616"/>
+  <dimension ref="A1:I2619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92000,6 +92000,111 @@
         <v>9530700</v>
       </c>
     </row>
+    <row r="2617">
+      <c r="A2617" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2617" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2617" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2617" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2617" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F2617" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G2617" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H2617" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I2617" t="n">
+        <v>9717100</v>
+      </c>
+    </row>
+    <row r="2618">
+      <c r="A2618" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2618" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2618" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2618" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2618" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F2618" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G2618" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H2618" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="I2618" t="n">
+        <v>9217600</v>
+      </c>
+    </row>
+    <row r="2619">
+      <c r="A2619" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2619" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2619" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2619" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2619" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F2619" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G2619" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H2619" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I2619" t="n">
+        <v>6627900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2619"/>
+  <dimension ref="A1:I2620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92105,6 +92105,41 @@
         <v>6627900</v>
       </c>
     </row>
+    <row r="2620">
+      <c r="A2620" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2620" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2620" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2620" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2620" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F2620" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G2620" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H2620" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I2620" t="n">
+        <v>4953300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2620"/>
+  <dimension ref="A1:I2621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92140,6 +92140,41 @@
         <v>4953300</v>
       </c>
     </row>
+    <row r="2621">
+      <c r="A2621" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2621" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2621" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2621" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2621" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F2621" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G2621" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H2621" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I2621" t="n">
+        <v>6113100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7250.xlsx
+++ b/data/7250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2621"/>
+  <dimension ref="A1:I2624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92175,6 +92175,111 @@
         <v>6113100</v>
       </c>
     </row>
+    <row r="2622">
+      <c r="A2622" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2622" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2622" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2622" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2622" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F2622" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G2622" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H2622" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I2622" t="n">
+        <v>20636800</v>
+      </c>
+    </row>
+    <row r="2623">
+      <c r="A2623" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2623" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2623" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2623" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2623" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F2623" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G2623" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H2623" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I2623" t="n">
+        <v>15269800</v>
+      </c>
+    </row>
+    <row r="2624">
+      <c r="A2624" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2624" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2624" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="D2624" t="inlineStr">
+        <is>
+          <t>UZMA</t>
+        </is>
+      </c>
+      <c r="E2624" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F2624" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G2624" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H2624" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I2624" t="n">
+        <v>19895000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
